--- a/Table/Table_xls/g怪物刷新/事件刷新表.xlsx
+++ b/Table/Table_xls/g怪物刷新/事件刷新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,13 +561,13 @@
     <t>延迟刷怪提示</t>
   </si>
   <si>
-    <t>战鼓擂</t>
+    <t>远古妖王</t>
   </si>
   <si>
     <t>170092,170093,170094;170095,170096,170097</t>
   </si>
   <si>
-    <t>2300@100</t>
+    <t>1605@1;1606@1;1607@1;1609@1;1610@1;1614@1;1616@1</t>
   </si>
   <si>
     <t>1,155,6926</t>
@@ -1018,7 +1018,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1102,9 +1102,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="57"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="40"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1115,15 +1128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,8 +1142,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,6 +1167,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,15 +1190,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,25 +1219,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,15 +1234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1230,38 +1242,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1277,6 +1277,12 @@
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1325,7 +1331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,13 +1361,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,7 +1451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,13 +1475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,31 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,79 +1511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,16 +1525,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1560,17 +1575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,8 +1587,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,178 +1622,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,6 +1867,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1874,7 +1883,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2275,28 +2284,28 @@
   <dimension ref="A1:AT41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="4" max="5" width="14.1296296296296" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="79" style="18" customWidth="1"/>
+    <col min="7" max="7" width="49.3333333333333" style="18" customWidth="1"/>
     <col min="8" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="7.62962962962963" customWidth="1"/>
+    <col min="12" max="12" width="10.6296296296296" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="71.375" customWidth="1"/>
+    <col min="14" max="14" width="71.3796296296296" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="19.875" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="19.8796296296296" customWidth="1"/>
+    <col min="17" max="17" width="12.6296296296296" customWidth="1"/>
     <col min="21" max="21" width="12.75" style="19" customWidth="1"/>
-    <col min="22" max="22" width="29.375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="29.3796296296296" style="20" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
@@ -2463,8 +2472,8 @@
       <c r="Q2" s="15">
         <v>3600</v>
       </c>
-      <c r="R2" s="15">
-        <v>13</v>
+      <c r="R2" s="31">
+        <v>3</v>
       </c>
       <c r="S2">
         <v>6926</v>
@@ -2475,10 +2484,10 @@
       <c r="U2" s="19">
         <v>2</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="33">
         <v>150214</v>
       </c>
       <c r="X2" s="15">
@@ -2564,8 +2573,8 @@
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="35"/>
       <c r="W3" s="19"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
@@ -2657,7 +2666,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="19"/>
-      <c r="V4" s="35"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="19"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
@@ -2750,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="U5" s="19"/>
-      <c r="V5" s="35"/>
+      <c r="V5" s="36"/>
       <c r="W5" s="19"/>
       <c r="Z5" s="17">
         <v>45</v>
@@ -2831,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="U6" s="19"/>
-      <c r="V6" s="35"/>
+      <c r="V6" s="36"/>
       <c r="W6" s="19"/>
       <c r="Z6" s="17">
         <v>55</v>
@@ -2912,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="U7" s="19"/>
-      <c r="V7" s="35"/>
+      <c r="V7" s="36"/>
       <c r="W7" s="19"/>
       <c r="Z7" s="17">
         <v>65</v>
@@ -2993,7 +3002,7 @@
         <v>10</v>
       </c>
       <c r="U8" s="19"/>
-      <c r="V8" s="35"/>
+      <c r="V8" s="36"/>
       <c r="W8" s="19"/>
       <c r="Z8" s="17">
         <v>70</v>
@@ -3074,7 +3083,7 @@
         <v>10</v>
       </c>
       <c r="U9" s="19"/>
-      <c r="V9" s="35"/>
+      <c r="V9" s="36"/>
       <c r="W9" s="19"/>
       <c r="Z9" s="17">
         <v>75</v>
@@ -3155,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="U10" s="19"/>
-      <c r="V10" s="35"/>
+      <c r="V10" s="36"/>
       <c r="W10" s="19"/>
       <c r="Z10" s="17">
         <v>80</v>
@@ -3236,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="U11" s="19"/>
-      <c r="V11" s="35"/>
+      <c r="V11" s="36"/>
       <c r="W11" s="19"/>
       <c r="Z11" s="17">
         <v>85</v>
@@ -3314,14 +3323,14 @@
       <c r="Q12" s="15">
         <v>0</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="37">
         <v>5</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="32">
+      <c r="V12" s="38"/>
+      <c r="W12" s="33">
         <v>150215</v>
       </c>
       <c r="X12" s="15"/>
@@ -3407,14 +3416,14 @@
       <c r="Q13" s="15">
         <v>0</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="37">
         <v>5</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" s="19"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="32">
+      <c r="V13" s="38"/>
+      <c r="W13" s="33">
         <v>150215</v>
       </c>
       <c r="Z13" s="15">
@@ -3482,14 +3491,14 @@
       <c r="Q14" s="15">
         <v>0</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="37">
         <v>5</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14" s="19"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="32">
+      <c r="V14" s="38"/>
+      <c r="W14" s="33">
         <v>150215</v>
       </c>
       <c r="Z14" s="15">
@@ -3557,14 +3566,14 @@
       <c r="Q15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="37">
         <v>5</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="32">
+      <c r="V15" s="38"/>
+      <c r="W15" s="33">
         <v>150215</v>
       </c>
       <c r="Z15" s="15">
@@ -3640,7 +3649,7 @@
         <v>6550</v>
       </c>
       <c r="T16"/>
-      <c r="U16" s="38"/>
+      <c r="U16" s="39"/>
       <c r="V16" s="20"/>
       <c r="W16">
         <v>180024</v>
@@ -3683,22 +3692,22 @@
       <c r="AO17" s="15"/>
     </row>
     <row r="20" spans="21:21">
-      <c r="U20" s="38"/>
+      <c r="U20" s="39"/>
     </row>
     <row r="21" spans="21:21">
-      <c r="U21" s="38"/>
+      <c r="U21" s="39"/>
     </row>
     <row r="22" spans="21:21">
-      <c r="U22" s="38"/>
+      <c r="U22" s="39"/>
     </row>
     <row r="23" spans="21:21">
-      <c r="U23" s="38"/>
+      <c r="U23" s="39"/>
     </row>
     <row r="24" spans="21:21">
-      <c r="U24" s="38"/>
+      <c r="U24" s="39"/>
     </row>
     <row r="25" spans="21:21">
-      <c r="U25" s="38"/>
+      <c r="U25" s="39"/>
     </row>
     <row r="26" spans="21:22">
       <c r="U26"/>
@@ -3725,34 +3734,34 @@
       <c r="V31"/>
     </row>
     <row r="32" spans="21:21">
-      <c r="U32" s="38"/>
+      <c r="U32" s="39"/>
     </row>
     <row r="33" spans="21:21">
-      <c r="U33" s="38"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" spans="21:21">
-      <c r="U34" s="38"/>
+      <c r="U34" s="39"/>
     </row>
     <row r="35" spans="21:21">
-      <c r="U35" s="38"/>
+      <c r="U35" s="39"/>
     </row>
     <row r="36" spans="21:21">
-      <c r="U36" s="38"/>
+      <c r="U36" s="39"/>
     </row>
     <row r="37" spans="21:21">
-      <c r="U37" s="38"/>
+      <c r="U37" s="39"/>
     </row>
     <row r="38" spans="21:21">
-      <c r="U38" s="38"/>
+      <c r="U38" s="39"/>
     </row>
     <row r="39" spans="21:21">
-      <c r="U39" s="38"/>
+      <c r="U39" s="39"/>
     </row>
     <row r="40" spans="21:21">
-      <c r="U40" s="38"/>
+      <c r="U40" s="39"/>
     </row>
     <row r="41" spans="21:21">
-      <c r="U41" s="38"/>
+      <c r="U41" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3771,7 +3780,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="2:13">
       <c r="B4" s="1" t="s">
@@ -4629,7 +4638,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
